--- a/CS563-Project/Project/ConsolidatedBugList.xlsx
+++ b/CS563-Project/Project/ConsolidatedBugList.xlsx
@@ -5,24 +5,24 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shreyesjoshi/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aakashkulkarni/Desktop/CS563-Project/CS563-Project/Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3281D3C8-15FD-7A45-B07A-212699494000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6560A65C-FC8F-D547-BF36-4A24AACC1EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17400" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="35200" windowHeight="28040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Consolidated List" sheetId="3" r:id="rId3"/>
+    <sheet name="Consolidated List" sheetId="3" r:id="rId1"/>
+    <sheet name="Aakash's Sheet" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="242">
   <si>
     <t>Sno</t>
   </si>
@@ -702,9 +702,6 @@
     <t>Schema Conflict/ Invalid Combination</t>
   </si>
   <si>
-    <t>Unique Index</t>
-  </si>
-  <si>
     <t>The issues arises because docs say that POST /topics/:topic supports assignment of a partition number via the records[i].partition field, but this appears to be ignored &amp; the partition is assigned in the usual way using a hash of the key.</t>
   </si>
   <si>
@@ -727,12 +724,6 @@
     <t>Incomplete Specification/ Semantic</t>
   </si>
   <si>
-    <t>Schema Conflicts/ Type</t>
-  </si>
-  <si>
-    <t>Previous SHA</t>
-  </si>
-  <si>
     <t>a317ba40fae8e2b11eecde01ad5e6ee15aebdb0f</t>
   </si>
   <si>
@@ -791,17 +782,33 @@
   </si>
   <si>
     <t>073db36f3368bfdac22a82cb2f7bcfb76410d497</t>
+  </si>
+  <si>
+    <t>Schema Conflict/ Type</t>
+  </si>
+  <si>
+    <t>Schema Conflict/ Missing/Null Valueslues</t>
+  </si>
+  <si>
+    <t>Comit ID (Bug)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -904,8 +911,16 @@
       <color rgb="FF0D0D0D"/>
       <name val="Arial (Body)"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -936,6 +951,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -961,89 +988,109 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="60% - Accent5" xfId="2" builtinId="48"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1257,508 +1304,628 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:F23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBD7700F-47DA-964F-8C92-F1EF4CFB58C5}">
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView zoomScale="142" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="56.83203125" customWidth="1"/>
-    <col min="5" max="5" width="28.33203125" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" style="27" customWidth="1"/>
+    <col min="2" max="2" width="29.33203125" style="27" customWidth="1"/>
+    <col min="3" max="3" width="64.83203125" style="27" customWidth="1"/>
+    <col min="4" max="4" width="46.5" style="27" customWidth="1"/>
+    <col min="5" max="5" width="42.33203125" style="27" customWidth="1"/>
+    <col min="6" max="6" width="43.6640625" style="27" customWidth="1"/>
+    <col min="7" max="7" width="41.1640625" style="27" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="32"/>
+    <col min="9" max="16384" width="10.83203125" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:7" ht="42" x14ac:dyDescent="0.15">
+      <c r="A1" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="B1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="57" x14ac:dyDescent="0.15">
+      <c r="A2" s="28">
+        <v>1</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="57" x14ac:dyDescent="0.15">
+      <c r="A3" s="28">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="B3" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="G3" s="28" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="171" x14ac:dyDescent="0.15">
+      <c r="A4" s="28">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="B4" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="114" x14ac:dyDescent="0.15">
+      <c r="A5" s="28">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="B5" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="G5" s="28" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="190" x14ac:dyDescent="0.15">
+      <c r="A6" s="28">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B6" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>204</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="133" x14ac:dyDescent="0.15">
+      <c r="A7" s="28">
+        <v>6</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="114" x14ac:dyDescent="0.15">
+      <c r="A8" s="28">
+        <v>7</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="114" x14ac:dyDescent="0.15">
+      <c r="A9" s="28">
+        <v>8</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="171" x14ac:dyDescent="0.15">
+      <c r="A10" s="28">
+        <v>9</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="F10" s="33" t="s">
+        <v>209</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="171" x14ac:dyDescent="0.15">
+      <c r="A11" s="28">
         <v>10</v>
       </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="B11" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="247" x14ac:dyDescent="0.15">
+      <c r="A12" s="28">
+        <v>11</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="G12" s="28" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="133" x14ac:dyDescent="0.15">
+      <c r="A13" s="28">
+        <v>12</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="F13" s="33" t="s">
+        <v>209</v>
+      </c>
+      <c r="G13" s="28" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="152" x14ac:dyDescent="0.15">
+      <c r="A14" s="28">
+        <v>13</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>214</v>
+      </c>
+      <c r="G14" s="28" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="133" x14ac:dyDescent="0.15">
+      <c r="A15" s="28">
+        <v>14</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>240</v>
+      </c>
+      <c r="G15" s="28" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="209" x14ac:dyDescent="0.15">
+      <c r="A16" s="28">
+        <v>15</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="F16" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="G16" s="28" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="114" x14ac:dyDescent="0.2">
+      <c r="A17" s="28">
+        <v>16</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="F17" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="G17" s="28" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="190" x14ac:dyDescent="0.15">
+      <c r="A18" s="28">
+        <v>17</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="G18" s="28" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="285" x14ac:dyDescent="0.15">
+      <c r="A19" s="28">
+        <v>18</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="F19" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="28" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="133" x14ac:dyDescent="0.15">
+      <c r="A20" s="28">
+        <v>19</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="133" x14ac:dyDescent="0.15">
+      <c r="A21" s="28">
+        <v>20</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="G21" s="28" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="133" x14ac:dyDescent="0.15">
+      <c r="A22" s="28">
+        <v>21</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="F22" s="28" t="s">
+        <v>239</v>
+      </c>
+      <c r="G22" s="28" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="266" x14ac:dyDescent="0.15">
+      <c r="A23" s="28">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6">
-        <v>59</v>
-      </c>
-      <c r="D6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7">
-        <v>99</v>
-      </c>
-      <c r="D7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8">
-        <v>109</v>
-      </c>
-      <c r="D8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9">
-        <v>111</v>
-      </c>
-      <c r="D9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11">
-        <v>141</v>
-      </c>
-      <c r="D11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12">
-        <v>175</v>
-      </c>
-      <c r="D12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="3" t="s">
+      <c r="B23" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="D23" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="F12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13">
-        <v>214</v>
-      </c>
-      <c r="D13" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14">
-        <v>289</v>
-      </c>
-      <c r="D14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15">
-        <v>305</v>
-      </c>
-      <c r="D15" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="3" t="s">
+      <c r="E23" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="G23" s="28" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="228" x14ac:dyDescent="0.15">
+      <c r="A24" s="28">
+        <v>23</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="G24" s="28" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="152" x14ac:dyDescent="0.15">
+      <c r="A25" s="28">
+        <v>24</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="D25" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="F15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16">
-        <v>313</v>
-      </c>
-      <c r="D16" t="s">
-        <v>52</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17">
-        <v>318</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18">
-        <v>105</v>
-      </c>
-      <c r="D18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19">
-        <v>91</v>
-      </c>
-      <c r="D19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20">
-        <v>74</v>
-      </c>
-      <c r="D20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21">
-        <v>65</v>
-      </c>
-      <c r="D21" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22">
-        <v>2</v>
-      </c>
-      <c r="D22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23">
-        <v>265</v>
-      </c>
-      <c r="D23" t="s">
-        <v>61</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F23" t="s">
-        <v>9</v>
+      <c r="E25" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="G25" s="28" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{E60D66FE-4CDA-4A3F-8B4D-33927B8D66AA}"/>
-    <hyperlink ref="E18" r:id="rId2" xr:uid="{F05B29FF-07D7-49E3-A13D-094E985F2B7B}"/>
-    <hyperlink ref="E19" r:id="rId3" xr:uid="{F37504C6-A1A4-4653-8921-6F73EE3A9239}"/>
-    <hyperlink ref="E20" r:id="rId4" xr:uid="{1F6ACC9C-5B0A-44EE-BD67-0E4210FFCF18}"/>
-    <hyperlink ref="E21" r:id="rId5" xr:uid="{9D713CA2-CA0C-470C-A6CB-46A4F1BF0933}"/>
-    <hyperlink ref="E3" r:id="rId6" xr:uid="{765E1750-5631-42BD-BC5B-0C550D2964D5}"/>
-    <hyperlink ref="E4" r:id="rId7" xr:uid="{29214FE3-8305-4321-B415-D05488D8BFBA}"/>
-    <hyperlink ref="E5" r:id="rId8" xr:uid="{9D1E8D75-C3AD-4842-9393-CCFF1BBF4DBA}"/>
-    <hyperlink ref="E6" r:id="rId9" xr:uid="{2782A25B-0E3A-4B4C-8D59-FD8E274F6540}"/>
-    <hyperlink ref="E7" r:id="rId10" xr:uid="{BB674382-D568-48AE-8079-5F1B3437413B}"/>
-    <hyperlink ref="E8" r:id="rId11" xr:uid="{98B8692F-C940-48D3-8BA1-E2040CAE58AD}"/>
-    <hyperlink ref="E9" r:id="rId12" xr:uid="{F0A9BF81-013E-48D3-A197-BC58B1A6CF2F}"/>
-    <hyperlink ref="E10" r:id="rId13" xr:uid="{04DFA0D6-F772-43DF-97CE-DE187E5B55B3}"/>
-    <hyperlink ref="E11" r:id="rId14" xr:uid="{9E5077B2-CEB1-409B-819F-1EC3A0FCA29F}"/>
-    <hyperlink ref="E12" r:id="rId15" xr:uid="{838DC2C3-B517-4425-B3E4-A23FF4F9AF7B}"/>
-    <hyperlink ref="E13" r:id="rId16" xr:uid="{8FC1CA6F-F7A2-4825-B98B-95880A987CA6}"/>
-    <hyperlink ref="E14" r:id="rId17" xr:uid="{6055105B-0159-42EA-830A-0B27FD1AB8A6}"/>
-    <hyperlink ref="E15" r:id="rId18" xr:uid="{36D03628-8DEA-447A-A864-605786104768}"/>
-    <hyperlink ref="E16" r:id="rId19" xr:uid="{E013718D-7BCD-4FD8-9F9A-13C6CCC9B62E}"/>
-    <hyperlink ref="E17" r:id="rId20" xr:uid="{064D850C-0F91-4559-9C23-3366133C2C41}"/>
-    <hyperlink ref="E22" r:id="rId21" xr:uid="{214CA056-75D7-418C-9912-69B3868EB0B0}"/>
-    <hyperlink ref="E23" r:id="rId22" xr:uid="{9188A035-24D1-48DB-BA97-E9AAAC2A0889}"/>
+    <hyperlink ref="D4" r:id="rId1" xr:uid="{75CDB825-013B-274A-87F7-47FCB461795B}"/>
+    <hyperlink ref="D5" r:id="rId2" xr:uid="{1BD9B2BD-97F7-284C-B856-CE02672A5C10}"/>
+    <hyperlink ref="E5" r:id="rId3" xr:uid="{69B1BFCB-4693-8F49-ABD8-CBE03B7748DA}"/>
+    <hyperlink ref="D6" r:id="rId4" xr:uid="{304A3B0C-9ABA-7043-960B-34AA3118B811}"/>
+    <hyperlink ref="D9" r:id="rId5" xr:uid="{E4249028-5723-6D4E-A696-52D2B8037F92}"/>
+    <hyperlink ref="D10" r:id="rId6" xr:uid="{EC977CF0-6543-4840-AC15-6E61E57AEFEA}"/>
+    <hyperlink ref="D11" r:id="rId7" xr:uid="{08AA1BC8-A5CD-8349-85E3-513C850BFD12}"/>
+    <hyperlink ref="D12" r:id="rId8" xr:uid="{C00DE883-459F-E944-A785-A93B67F4C5E3}"/>
+    <hyperlink ref="D13" r:id="rId9" xr:uid="{6F935D7F-8715-A94A-9A1E-BC74D7ACB9BF}"/>
+    <hyperlink ref="D18" r:id="rId10" xr:uid="{14486726-D112-B547-8565-7D34DA4E81A6}"/>
+    <hyperlink ref="D19" r:id="rId11" xr:uid="{B0A943F1-5F04-C54A-8657-E40B49C735EC}"/>
+    <hyperlink ref="D20" r:id="rId12" xr:uid="{E460252A-AD35-5C4F-8997-D7CA866A16F4}"/>
+    <hyperlink ref="D21" r:id="rId13" xr:uid="{C2E8E1D7-ABFD-0E4D-889E-A674EC076011}"/>
+    <hyperlink ref="D22" r:id="rId14" xr:uid="{17ED4E83-5721-4A46-8404-68A4D40F0967}"/>
+    <hyperlink ref="D23" r:id="rId15" xr:uid="{F6FE9599-4A1B-4240-88A2-5BD474984BCF}"/>
+    <hyperlink ref="D24" r:id="rId16" xr:uid="{B5ABF003-6019-054C-A63E-C95166D767EE}"/>
+    <hyperlink ref="E24" r:id="rId17" xr:uid="{D05F0F26-24DB-A042-AD92-5572D4692A40}"/>
+    <hyperlink ref="D25" r:id="rId18" xr:uid="{04A9AD64-217A-0A4E-B7EC-3539AABBF53C}"/>
+    <hyperlink ref="E25" r:id="rId19" xr:uid="{C6FF325F-B222-7248-8067-5DFBB14719A9}"/>
+    <hyperlink ref="D7" r:id="rId20" xr:uid="{2342401E-53BB-E240-8BF1-45199C8E419A}"/>
+    <hyperlink ref="D8" r:id="rId21" xr:uid="{904B86B6-0C92-1840-BE94-70FAE8C75D75}"/>
+    <hyperlink ref="D14" r:id="rId22" xr:uid="{69EF9B7D-7163-BD4E-8E32-716F77C7F18F}"/>
+    <hyperlink ref="D15" r:id="rId23" xr:uid="{BDEFF40F-C24B-FE4F-9C2C-F8C45E0EE38D}"/>
+    <hyperlink ref="D16" r:id="rId24" xr:uid="{4117D54D-646A-C244-93DF-954C0A949663}"/>
+    <hyperlink ref="D17" r:id="rId25" xr:uid="{8338CEC9-6174-A342-BA7C-4C2C8E53F73B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -1769,1047 +1936,1137 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EA69374-E3B5-7B46-BD54-AECB0F4870D8}">
   <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView topLeftCell="D49" zoomScale="62" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+    <sheetView zoomScale="75" workbookViewId="0">
+      <selection activeCell="L51" sqref="L51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="9" customWidth="1"/>
-    <col min="2" max="2" width="25.33203125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="30.1640625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="52.83203125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="35.1640625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="48.6640625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="32.83203125" style="9" customWidth="1"/>
-    <col min="8" max="8" width="41.83203125" style="10" customWidth="1"/>
-    <col min="9" max="16384" width="11" style="10"/>
+    <col min="1" max="1" width="11.5" style="21" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" style="21" customWidth="1"/>
+    <col min="3" max="3" width="30.1640625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="52.83203125" style="21" customWidth="1"/>
+    <col min="5" max="5" width="35.1640625" style="22" customWidth="1"/>
+    <col min="6" max="6" width="48.6640625" style="21" customWidth="1"/>
+    <col min="7" max="7" width="32.83203125" style="21" customWidth="1"/>
+    <col min="8" max="8" width="41.83203125" style="23" customWidth="1"/>
+    <col min="9" max="16384" width="11" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:12" s="24" customFormat="1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="95" x14ac:dyDescent="0.2">
-      <c r="A2" s="15">
+    <row r="2" spans="1:12" s="24" customFormat="1" ht="95" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="5">
         <v>100</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-    </row>
-    <row r="3" spans="1:12" ht="114" x14ac:dyDescent="0.2">
-      <c r="A3" s="15">
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+    </row>
+    <row r="3" spans="1:12" s="24" customFormat="1" ht="114" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="5">
         <v>101</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-    </row>
-    <row r="4" spans="1:12" ht="152" x14ac:dyDescent="0.2">
-      <c r="A4" s="15">
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+    </row>
+    <row r="4" spans="1:12" s="24" customFormat="1" ht="152" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="5">
         <v>103</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="152" x14ac:dyDescent="0.2">
-      <c r="A5" s="15">
+    <row r="5" spans="1:12" s="24" customFormat="1" ht="152" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="5">
         <v>128</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-    </row>
-    <row r="8" spans="1:12" ht="152" x14ac:dyDescent="0.2">
-      <c r="A8" s="15">
+    <row r="6" spans="1:12" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:12" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:12" s="24" customFormat="1" ht="152" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
         <v>5</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="5">
         <v>32</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="76" x14ac:dyDescent="0.2">
-      <c r="A9" s="15">
+    <row r="9" spans="1:12" s="24" customFormat="1" ht="76" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
         <v>6</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="5">
         <v>33</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="16" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="152" x14ac:dyDescent="0.2">
-      <c r="A10" s="15">
+    <row r="10" spans="1:12" s="24" customFormat="1" ht="152" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
         <v>7</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="5">
         <v>35</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="95" x14ac:dyDescent="0.2">
-      <c r="A11" s="15">
+    <row r="11" spans="1:12" s="24" customFormat="1" ht="95" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
         <v>8</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="5">
         <v>47</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="95" x14ac:dyDescent="0.2">
-      <c r="A12" s="15">
+    <row r="12" spans="1:12" s="24" customFormat="1" ht="95" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
         <v>9</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="5">
         <v>55</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="16" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="133" x14ac:dyDescent="0.2">
-      <c r="A13" s="21">
+    <row r="13" spans="1:12" s="24" customFormat="1" ht="133" x14ac:dyDescent="0.2">
+      <c r="A13" s="7">
         <v>10</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="7">
         <v>67</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="F13" s="21" t="s">
+      <c r="F13" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="G13" s="21" t="s">
+      <c r="G13" s="7" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="57" x14ac:dyDescent="0.2">
-      <c r="A14" s="15">
+    <row r="14" spans="1:12" s="24" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
         <v>11</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="5">
         <v>69</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="F14" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="G14" s="15" t="s">
+      <c r="G14" s="5" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="76" x14ac:dyDescent="0.2">
-      <c r="A15" s="15">
+    <row r="15" spans="1:12" s="24" customFormat="1" ht="76" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
         <v>12</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="5">
         <v>139</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="G15" s="15" t="s">
+      <c r="G15" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="H15" s="26" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="133" x14ac:dyDescent="0.2">
-      <c r="A16" s="15">
+    <row r="16" spans="1:12" s="24" customFormat="1" ht="133" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
         <v>13</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="5">
         <v>144</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="G16" s="15" t="s">
+      <c r="G16" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="76" x14ac:dyDescent="0.2">
-      <c r="A17" s="15">
+    <row r="17" spans="1:7" s="24" customFormat="1" ht="76" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
         <v>14</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="5">
         <v>196</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="F17" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="G17" s="15" t="s">
+      <c r="G17" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="133" x14ac:dyDescent="0.2">
-      <c r="A18" s="15">
+    <row r="18" spans="1:7" s="24" customFormat="1" ht="133" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
         <v>15</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="5">
         <v>199</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F18" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="G18" s="15" t="s">
+      <c r="G18" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="152" x14ac:dyDescent="0.2">
-      <c r="A19" s="15">
+    <row r="19" spans="1:7" s="24" customFormat="1" ht="152" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
         <v>16</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="5">
         <v>207</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F19" s="15" t="s">
+      <c r="F19" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="G19" s="15" t="s">
+      <c r="G19" s="5" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="152" x14ac:dyDescent="0.2">
-      <c r="A20" s="15">
+    <row r="20" spans="1:7" s="24" customFormat="1" ht="152" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
         <v>17</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="5">
         <v>208</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E20" s="17" t="s">
+      <c r="E20" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="F20" s="15" t="s">
+      <c r="F20" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="G20" s="15" t="s">
+      <c r="G20" s="5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="133" x14ac:dyDescent="0.2">
-      <c r="A21" s="15">
+    <row r="21" spans="1:7" s="24" customFormat="1" ht="133" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
         <v>18</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="5">
         <v>244</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="E21" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="F21" s="15" t="s">
+      <c r="F21" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="G21" s="15" t="s">
+      <c r="G21" s="5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="133" x14ac:dyDescent="0.2">
-      <c r="A22" s="15">
+    <row r="22" spans="1:7" s="24" customFormat="1" ht="133" x14ac:dyDescent="0.2">
+      <c r="A22" s="5">
         <v>20</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="5">
         <v>248</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="F22" s="15" t="s">
+      <c r="F22" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="G22" s="15" t="s">
+      <c r="G22" s="5" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-    </row>
-    <row r="25" spans="1:7" ht="133" x14ac:dyDescent="0.2">
-      <c r="A25" s="15">
+    <row r="23" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="1:7" s="24" customFormat="1" ht="133" x14ac:dyDescent="0.2">
+      <c r="A25" s="5">
         <v>21</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="C25" s="15">
+      <c r="C25" s="5">
         <v>849</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="F25" s="15" t="s">
+      <c r="F25" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="G25" s="17" t="s">
+      <c r="G25" s="16" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="38" x14ac:dyDescent="0.2">
-      <c r="A26" s="21">
+    <row r="26" spans="1:7" s="24" customFormat="1" ht="38" x14ac:dyDescent="0.2">
+      <c r="A26" s="7">
         <v>22</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="C26" s="21">
+      <c r="C26" s="7">
         <v>913</v>
       </c>
-      <c r="D26" s="21" t="s">
+      <c r="D26" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="24" t="s">
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="17" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="133" x14ac:dyDescent="0.2">
-      <c r="A27" s="15">
+    <row r="27" spans="1:7" s="24" customFormat="1" ht="133" x14ac:dyDescent="0.2">
+      <c r="A27" s="5">
         <v>23</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="C27" s="15">
+      <c r="C27" s="5">
         <v>1053</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="D27" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="E27" s="17" t="s">
+      <c r="E27" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="F27" s="15" t="s">
+      <c r="F27" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="G27" s="15" t="s">
+      <c r="G27" s="5" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="171" x14ac:dyDescent="0.2">
-      <c r="A28" s="15">
+    <row r="28" spans="1:7" s="24" customFormat="1" ht="171" x14ac:dyDescent="0.2">
+      <c r="A28" s="5">
         <v>24</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="C28" s="15">
+      <c r="C28" s="5">
         <v>1088</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="D28" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="E28" s="17" t="s">
+      <c r="E28" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="F28" s="15" t="s">
+      <c r="F28" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="G28" s="15" t="s">
+      <c r="G28" s="5" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="114" x14ac:dyDescent="0.2">
-      <c r="A29" s="21">
+    <row r="29" spans="1:7" s="24" customFormat="1" ht="114" x14ac:dyDescent="0.2">
+      <c r="A29" s="7">
         <v>25</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="C29" s="21">
+      <c r="C29" s="7">
         <v>1117</v>
       </c>
-      <c r="D29" s="21" t="s">
+      <c r="D29" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="E29" s="24" t="s">
+      <c r="E29" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="F29" s="21" t="s">
+      <c r="F29" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="G29" s="21" t="s">
+      <c r="G29" s="7" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="26" t="s">
+    <row r="30" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="26" t="s">
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+    </row>
+    <row r="33" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+    </row>
+    <row r="34" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+    </row>
+    <row r="35" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-    </row>
-    <row r="38" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="27" t="s">
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+    </row>
+    <row r="36" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+    </row>
+    <row r="37" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+    </row>
+    <row r="38" spans="1:7" s="24" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-    </row>
-    <row r="41" spans="1:7" ht="114" x14ac:dyDescent="0.2">
-      <c r="A41" s="9">
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+    </row>
+    <row r="39" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+    </row>
+    <row r="40" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+    </row>
+    <row r="41" spans="1:7" s="24" customFormat="1" ht="114" x14ac:dyDescent="0.2">
+      <c r="A41" s="8">
         <v>26</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="C41" s="9">
+      <c r="C41" s="8">
         <v>65</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="D41" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="E41" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F41" s="9" t="s">
+      <c r="F41" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="G41" s="9" t="s">
+      <c r="G41" s="8" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="27" t="s">
+    <row r="42" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+    </row>
+    <row r="43" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+    </row>
+    <row r="44" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="27"/>
-    </row>
-    <row r="47" spans="1:7" ht="152" x14ac:dyDescent="0.2">
-      <c r="A47" s="9">
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+    </row>
+    <row r="45" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+    </row>
+    <row r="46" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+    </row>
+    <row r="47" spans="1:7" s="24" customFormat="1" ht="152" x14ac:dyDescent="0.2">
+      <c r="A47" s="8">
         <v>27</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="C47" s="9">
+      <c r="C47" s="8">
         <v>10</v>
       </c>
-      <c r="D47" s="9" t="s">
+      <c r="D47" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="E47" s="5" t="s">
+      <c r="E47" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F47" s="9" t="s">
+      <c r="F47" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="G47" s="9" t="s">
+      <c r="G47" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="18">
+    <row r="48" spans="1:7" s="24" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="10">
         <v>28</v>
       </c>
-      <c r="B48" s="18" t="s">
+      <c r="B48" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C48" s="18">
+      <c r="C48" s="10">
         <v>25</v>
       </c>
-      <c r="D48" s="19" t="s">
+      <c r="D48" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="E48" s="5" t="s">
+      <c r="E48" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F48" s="18" t="s">
+      <c r="F48" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="G48" s="18" t="s">
+      <c r="G48" s="10" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="152" x14ac:dyDescent="0.2">
-      <c r="A49" s="25">
+    <row r="49" spans="1:7" s="24" customFormat="1" ht="152" x14ac:dyDescent="0.2">
+      <c r="A49" s="12">
         <v>29</v>
       </c>
-      <c r="B49" s="25" t="s">
+      <c r="B49" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="C49" s="25">
+      <c r="C49" s="12">
         <v>28</v>
       </c>
-      <c r="D49" s="25" t="s">
+      <c r="D49" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="E49" s="22" t="s">
+      <c r="E49" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="F49" s="25" t="s">
+      <c r="F49" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="G49" s="25" t="s">
+      <c r="G49" s="12" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="25">
+    <row r="50" spans="1:7" s="24" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="12">
         <v>30</v>
       </c>
-      <c r="B50" s="25" t="s">
+      <c r="B50" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="C50" s="25">
+      <c r="C50" s="12">
         <v>59</v>
       </c>
-      <c r="D50" s="25" t="s">
+      <c r="D50" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="E50" s="22" t="s">
+      <c r="E50" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F50" s="25" t="s">
+      <c r="F50" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="G50" s="25" t="s">
+      <c r="G50" s="12" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="9">
+    <row r="51" spans="1:7" s="24" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="8">
         <v>31</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="C51" s="9">
+      <c r="C51" s="8">
         <v>99</v>
       </c>
-      <c r="D51" s="9" t="s">
+      <c r="D51" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="E51" s="5" t="s">
+      <c r="E51" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F51" s="9" t="s">
+      <c r="F51" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="G51" s="9" t="s">
+      <c r="G51" s="8" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="95" x14ac:dyDescent="0.2">
-      <c r="A52" s="9">
+    <row r="52" spans="1:7" s="24" customFormat="1" ht="95" x14ac:dyDescent="0.2">
+      <c r="A52" s="8">
         <v>32</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="C52" s="9">
+      <c r="C52" s="8">
         <v>109</v>
       </c>
-      <c r="D52" s="9" t="s">
+      <c r="D52" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="E52" s="5" t="s">
+      <c r="E52" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F52" s="9" t="s">
+      <c r="F52" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="G52" s="9" t="s">
+      <c r="G52" s="8" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="114" x14ac:dyDescent="0.2">
-      <c r="A53" s="9">
+    <row r="53" spans="1:7" s="24" customFormat="1" ht="114" x14ac:dyDescent="0.2">
+      <c r="A53" s="8">
         <v>33</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="C53" s="9">
+      <c r="C53" s="8">
         <v>111</v>
       </c>
-      <c r="D53" s="9" t="s">
+      <c r="D53" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="E53" s="5" t="s">
+      <c r="E53" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F53" s="9" t="s">
+      <c r="F53" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="G53" s="9" t="s">
+      <c r="G53" s="8" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="152" x14ac:dyDescent="0.2">
-      <c r="A54" s="25">
+    <row r="54" spans="1:7" s="24" customFormat="1" ht="152" x14ac:dyDescent="0.2">
+      <c r="A54" s="12">
         <v>34</v>
       </c>
-      <c r="B54" s="25" t="s">
+      <c r="B54" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="C54" s="25">
+      <c r="C54" s="12">
         <v>129</v>
       </c>
-      <c r="D54" s="25" t="s">
+      <c r="D54" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="E54" s="22" t="s">
+      <c r="E54" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F54" s="25" t="s">
+      <c r="F54" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="G54" s="25" t="s">
+      <c r="G54" s="12" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="9">
+    <row r="55" spans="1:7" s="24" customFormat="1" ht="164" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="12">
         <v>35</v>
       </c>
-      <c r="B55" s="25" t="s">
+      <c r="B55" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="C55" s="25">
+      <c r="C55" s="12">
         <v>131</v>
       </c>
-      <c r="D55" s="25" t="s">
+      <c r="D55" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="E55" s="22" t="s">
+      <c r="E55" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="F55" s="25" t="s">
+      <c r="F55" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="G55" s="22" t="s">
+      <c r="G55" s="13" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="9">
+    <row r="56" spans="1:7" s="24" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="8">
         <v>36</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="B56" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="C56" s="9">
+      <c r="C56" s="8">
         <v>141</v>
       </c>
-      <c r="D56" s="9" t="s">
+      <c r="D56" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="E56" s="5" t="s">
+      <c r="E56" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F56" s="9" t="s">
+      <c r="F56" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="G56" s="9" t="s">
+      <c r="G56" s="8" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="209" x14ac:dyDescent="0.2">
-      <c r="A57" s="9">
+    <row r="57" spans="1:7" s="24" customFormat="1" ht="209" x14ac:dyDescent="0.2">
+      <c r="A57" s="8">
         <v>37</v>
       </c>
-      <c r="B57" s="9" t="s">
+      <c r="B57" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="C57" s="9">
+      <c r="C57" s="8">
         <v>175</v>
       </c>
-      <c r="D57" s="9" t="s">
+      <c r="D57" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="E57" s="5" t="s">
+      <c r="E57" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F57" s="9" t="s">
+      <c r="F57" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="G57" s="9" t="s">
+      <c r="G57" s="8" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="171" x14ac:dyDescent="0.2">
-      <c r="A58" s="9">
+    <row r="58" spans="1:7" s="24" customFormat="1" ht="171" x14ac:dyDescent="0.2">
+      <c r="A58" s="8">
         <v>38</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="C58" s="9">
+      <c r="C58" s="8">
         <v>191</v>
       </c>
-      <c r="D58" s="9" t="s">
+      <c r="D58" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="E58" s="5" t="s">
+      <c r="E58" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="F58" s="9" t="s">
+      <c r="F58" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="G58" s="5" t="s">
+      <c r="G58" s="9" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="9">
+    <row r="59" spans="1:7" s="24" customFormat="1" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="8">
         <v>39</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="B59" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="C59" s="9">
+      <c r="C59" s="8">
         <v>199</v>
       </c>
-      <c r="D59" s="9" t="s">
+      <c r="D59" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="E59" s="5" t="s">
+      <c r="E59" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="F59" s="9" t="s">
+      <c r="F59" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="G59" s="9" t="s">
+      <c r="G59" s="8" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="114" x14ac:dyDescent="0.2">
-      <c r="A60" s="9">
+    <row r="60" spans="1:7" s="24" customFormat="1" ht="114" x14ac:dyDescent="0.2">
+      <c r="A60" s="8">
         <v>40</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="B60" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="C60" s="9">
+      <c r="C60" s="8">
         <v>305</v>
       </c>
-      <c r="D60" s="9" t="s">
+      <c r="D60" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="E60" s="5" t="s">
+      <c r="E60" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F60" s="9" t="s">
+      <c r="F60" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="G60" s="5" t="s">
+      <c r="G60" s="9" t="s">
         <v>194</v>
       </c>
     </row>
@@ -2870,624 +3127,510 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBD7700F-47DA-964F-8C92-F1EF4CFB58C5}">
-  <dimension ref="A1:G25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView zoomScale="142" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="39.83203125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="46.5" style="6" customWidth="1"/>
-    <col min="5" max="5" width="42.33203125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="43.6640625" style="6" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="6"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="56.83203125" customWidth="1"/>
+    <col min="5" max="5" width="28.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="38" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="57" x14ac:dyDescent="0.15">
-      <c r="A2" s="6">
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2" s="6" t="s">
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>59</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>99</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="114" x14ac:dyDescent="0.15">
-      <c r="A3" s="6">
+    </row>
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>109</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>111</v>
+      </c>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>141</v>
+      </c>
+      <c r="D11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>175</v>
+      </c>
+      <c r="D12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>214</v>
+      </c>
+      <c r="D13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>289</v>
+      </c>
+      <c r="D14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>305</v>
+      </c>
+      <c r="D15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>313</v>
+      </c>
+      <c r="D16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>318</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18">
+        <v>105</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19">
+        <v>91</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20">
+        <v>74</v>
+      </c>
+      <c r="D20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21">
+        <v>65</v>
+      </c>
+      <c r="D21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="171" x14ac:dyDescent="0.15">
-      <c r="A4" s="6">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="F4" s="6" t="s">
+      <c r="D22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23">
+        <v>265</v>
+      </c>
+      <c r="D23" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" t="s">
         <v>9</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="114" x14ac:dyDescent="0.15">
-      <c r="A5" s="6">
-        <v>4</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="190" x14ac:dyDescent="0.15">
-      <c r="A6" s="6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="133" x14ac:dyDescent="0.15">
-      <c r="A7" s="6">
-        <v>6</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="114" x14ac:dyDescent="0.15">
-      <c r="A8" s="6">
-        <v>7</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="114" x14ac:dyDescent="0.15">
-      <c r="A9" s="6">
-        <v>8</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="171" x14ac:dyDescent="0.15">
-      <c r="A10" s="6">
-        <v>9</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>209</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="171" x14ac:dyDescent="0.15">
-      <c r="A11" s="6">
-        <v>10</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="247" x14ac:dyDescent="0.15">
-      <c r="A12" s="6">
-        <v>11</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="133" x14ac:dyDescent="0.15">
-      <c r="A13" s="6">
-        <v>12</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="152" x14ac:dyDescent="0.15">
-      <c r="A14" s="6">
-        <v>13</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="133" x14ac:dyDescent="0.15">
-      <c r="A15" s="6">
-        <v>14</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="209" x14ac:dyDescent="0.15">
-      <c r="A16" s="6">
-        <v>15</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="114" x14ac:dyDescent="0.2">
-      <c r="A17" s="6">
-        <v>16</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="190" x14ac:dyDescent="0.15">
-      <c r="A18" s="6">
-        <v>17</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="285" x14ac:dyDescent="0.15">
-      <c r="A19" s="6">
-        <v>18</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="133" x14ac:dyDescent="0.15">
-      <c r="A20" s="6">
-        <v>19</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="133" x14ac:dyDescent="0.15">
-      <c r="A21" s="6">
-        <v>20</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="133" x14ac:dyDescent="0.15">
-      <c r="A22" s="6">
-        <v>21</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="266" x14ac:dyDescent="0.15">
-      <c r="A23" s="6">
-        <v>22</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="228" x14ac:dyDescent="0.15">
-      <c r="A24" s="6">
-        <v>23</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="152" x14ac:dyDescent="0.15">
-      <c r="A25" s="6">
-        <v>24</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>241</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1" xr:uid="{75CDB825-013B-274A-87F7-47FCB461795B}"/>
-    <hyperlink ref="D5" r:id="rId2" xr:uid="{1BD9B2BD-97F7-284C-B856-CE02672A5C10}"/>
-    <hyperlink ref="E5" r:id="rId3" xr:uid="{69B1BFCB-4693-8F49-ABD8-CBE03B7748DA}"/>
-    <hyperlink ref="D6" r:id="rId4" xr:uid="{304A3B0C-9ABA-7043-960B-34AA3118B811}"/>
-    <hyperlink ref="D9" r:id="rId5" xr:uid="{E4249028-5723-6D4E-A696-52D2B8037F92}"/>
-    <hyperlink ref="D10" r:id="rId6" xr:uid="{EC977CF0-6543-4840-AC15-6E61E57AEFEA}"/>
-    <hyperlink ref="D11" r:id="rId7" xr:uid="{08AA1BC8-A5CD-8349-85E3-513C850BFD12}"/>
-    <hyperlink ref="D12" r:id="rId8" xr:uid="{C00DE883-459F-E944-A785-A93B67F4C5E3}"/>
-    <hyperlink ref="D13" r:id="rId9" xr:uid="{6F935D7F-8715-A94A-9A1E-BC74D7ACB9BF}"/>
-    <hyperlink ref="D18" r:id="rId10" xr:uid="{14486726-D112-B547-8565-7D34DA4E81A6}"/>
-    <hyperlink ref="D19" r:id="rId11" xr:uid="{B0A943F1-5F04-C54A-8657-E40B49C735EC}"/>
-    <hyperlink ref="D20" r:id="rId12" xr:uid="{E460252A-AD35-5C4F-8997-D7CA866A16F4}"/>
-    <hyperlink ref="D21" r:id="rId13" xr:uid="{C2E8E1D7-ABFD-0E4D-889E-A674EC076011}"/>
-    <hyperlink ref="D22" r:id="rId14" xr:uid="{17ED4E83-5721-4A46-8404-68A4D40F0967}"/>
-    <hyperlink ref="D23" r:id="rId15" xr:uid="{F6FE9599-4A1B-4240-88A2-5BD474984BCF}"/>
-    <hyperlink ref="D24" r:id="rId16" xr:uid="{B5ABF003-6019-054C-A63E-C95166D767EE}"/>
-    <hyperlink ref="E24" r:id="rId17" xr:uid="{D05F0F26-24DB-A042-AD92-5572D4692A40}"/>
-    <hyperlink ref="D25" r:id="rId18" xr:uid="{04A9AD64-217A-0A4E-B7EC-3539AABBF53C}"/>
-    <hyperlink ref="E25" r:id="rId19" xr:uid="{C6FF325F-B222-7248-8067-5DFBB14719A9}"/>
-    <hyperlink ref="D7" r:id="rId20" xr:uid="{2342401E-53BB-E240-8BF1-45199C8E419A}"/>
-    <hyperlink ref="D8" r:id="rId21" xr:uid="{904B86B6-0C92-1840-BE94-70FAE8C75D75}"/>
-    <hyperlink ref="D14" r:id="rId22" xr:uid="{69EF9B7D-7163-BD4E-8E32-716F77C7F18F}"/>
-    <hyperlink ref="D15" r:id="rId23" xr:uid="{BDEFF40F-C24B-FE4F-9C2C-F8C45E0EE38D}"/>
-    <hyperlink ref="D16" r:id="rId24" xr:uid="{4117D54D-646A-C244-93DF-954C0A949663}"/>
-    <hyperlink ref="D17" r:id="rId25" xr:uid="{8338CEC9-6174-A342-BA7C-4C2C8E53F73B}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{E60D66FE-4CDA-4A3F-8B4D-33927B8D66AA}"/>
+    <hyperlink ref="E18" r:id="rId2" xr:uid="{F05B29FF-07D7-49E3-A13D-094E985F2B7B}"/>
+    <hyperlink ref="E19" r:id="rId3" xr:uid="{F37504C6-A1A4-4653-8921-6F73EE3A9239}"/>
+    <hyperlink ref="E20" r:id="rId4" xr:uid="{1F6ACC9C-5B0A-44EE-BD67-0E4210FFCF18}"/>
+    <hyperlink ref="E21" r:id="rId5" xr:uid="{9D713CA2-CA0C-470C-A6CB-46A4F1BF0933}"/>
+    <hyperlink ref="E3" r:id="rId6" xr:uid="{765E1750-5631-42BD-BC5B-0C550D2964D5}"/>
+    <hyperlink ref="E4" r:id="rId7" xr:uid="{29214FE3-8305-4321-B415-D05488D8BFBA}"/>
+    <hyperlink ref="E5" r:id="rId8" xr:uid="{9D1E8D75-C3AD-4842-9393-CCFF1BBF4DBA}"/>
+    <hyperlink ref="E6" r:id="rId9" xr:uid="{2782A25B-0E3A-4B4C-8D59-FD8E274F6540}"/>
+    <hyperlink ref="E7" r:id="rId10" xr:uid="{BB674382-D568-48AE-8079-5F1B3437413B}"/>
+    <hyperlink ref="E8" r:id="rId11" xr:uid="{98B8692F-C940-48D3-8BA1-E2040CAE58AD}"/>
+    <hyperlink ref="E9" r:id="rId12" xr:uid="{F0A9BF81-013E-48D3-A197-BC58B1A6CF2F}"/>
+    <hyperlink ref="E10" r:id="rId13" xr:uid="{04DFA0D6-F772-43DF-97CE-DE187E5B55B3}"/>
+    <hyperlink ref="E11" r:id="rId14" xr:uid="{9E5077B2-CEB1-409B-819F-1EC3A0FCA29F}"/>
+    <hyperlink ref="E12" r:id="rId15" xr:uid="{838DC2C3-B517-4425-B3E4-A23FF4F9AF7B}"/>
+    <hyperlink ref="E13" r:id="rId16" xr:uid="{8FC1CA6F-F7A2-4825-B98B-95880A987CA6}"/>
+    <hyperlink ref="E14" r:id="rId17" xr:uid="{6055105B-0159-42EA-830A-0B27FD1AB8A6}"/>
+    <hyperlink ref="E15" r:id="rId18" xr:uid="{36D03628-8DEA-447A-A864-605786104768}"/>
+    <hyperlink ref="E16" r:id="rId19" xr:uid="{E013718D-7BCD-4FD8-9F9A-13C6CCC9B62E}"/>
+    <hyperlink ref="E17" r:id="rId20" xr:uid="{064D850C-0F91-4559-9C23-3366133C2C41}"/>
+    <hyperlink ref="E22" r:id="rId21" xr:uid="{214CA056-75D7-418C-9912-69B3868EB0B0}"/>
+    <hyperlink ref="E23" r:id="rId22" xr:uid="{9188A035-24D1-48DB-BA97-E9AAAC2A0889}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>